--- a/Backlog/Backlogv1.xlsx
+++ b/Backlog/Backlogv1.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Programacao\Meus_projetos\Owlfall\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF373E4-C2B0-44AC-861A-DF43CAF24643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B04596-4647-4A03-9168-6F789C13B2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{22534077-797E-4024-8787-077D6AFD948D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$E$6:$L$28</definedName>
   </definedNames>
@@ -464,9 +461,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,6 +477,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1528,63 +1525,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="BACKLOG"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="N3" t="str">
-            <v>Pontos Fibonacci</v>
-          </cell>
-          <cell r="O3" t="str">
-            <v>Planejado</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="N4">
-            <v>262</v>
-          </cell>
-          <cell r="O4">
-            <v>262</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>37</v>
-          </cell>
-          <cell r="O5">
-            <v>93</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>141</v>
-          </cell>
-          <cell r="O6">
-            <v>93</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="N7">
-            <v>84</v>
-          </cell>
-          <cell r="O7">
-            <v>84</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1905,7 +1845,7 @@
   <dimension ref="B1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,16 +1884,16 @@
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
@@ -1969,28 +1909,28 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2019,7 +1959,7 @@
       <c r="L7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="19" t="s">
         <v>16</v>
       </c>
       <c r="O7" s="4">
@@ -2027,10 +1967,10 @@
         <v>37</v>
       </c>
       <c r="Q7" s="5"/>
-      <c r="R7" s="20" t="s">
+      <c r="R7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="20" t="s">
+      <c r="S7" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2059,14 +1999,14 @@
       <c r="L8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="19" t="s">
         <v>17</v>
       </c>
       <c r="O8" s="4">
         <f>SUMIF(K:K,2,I:I)</f>
         <v>60</v>
       </c>
-      <c r="Q8" s="20" t="s">
+      <c r="Q8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="R8" s="4">
@@ -2103,14 +2043,14 @@
       <c r="L9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="O9" s="8">
         <f>SUMIF(K:K,3,I:I)</f>
         <v>60</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="Q9" s="19" t="s">
         <v>16</v>
       </c>
       <c r="R9" s="4">
@@ -2146,14 +2086,14 @@
       <c r="L10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="19" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="9">
         <f>SUM(O7:O9)</f>
         <v>157</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="19" t="s">
         <v>17</v>
       </c>
       <c r="R10" s="4">
@@ -2189,14 +2129,14 @@
       <c r="L11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="19" t="s">
         <v>9</v>
       </c>
       <c r="O11" s="4">
         <f>O10/3</f>
         <v>52.333333333333336</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="Q11" s="19" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="4">
@@ -2281,8 +2221,8 @@
       <c r="K14" s="4">
         <v>2</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>50</v>
+      <c r="L14" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:23" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2307,10 +2247,10 @@
       <c r="K15" s="4">
         <v>3</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O15" s="21"/>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="20"/>
     </row>
     <row r="16" spans="2:23" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
@@ -2334,8 +2274,8 @@
       <c r="K16" s="4">
         <v>3</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>50</v>
+      <c r="L16" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="V16" t="s">
         <v>10</v>
@@ -2363,8 +2303,8 @@
       <c r="K17" s="4">
         <v>3</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>50</v>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="5:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2389,8 +2329,8 @@
       <c r="K18" s="4">
         <v>3</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>50</v>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="5:12" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2486,26 +2426,26 @@
   <mergeCells count="1">
     <mergeCell ref="E5:L5"/>
   </mergeCells>
-  <conditionalFormatting sqref="L6:L13 L15:L20 L28">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="A Fazer">
+  <conditionalFormatting sqref="L6:L20">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="A Fazer">
       <formula>NOT(ISERROR(SEARCH("A Fazer",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Concluído">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Concluído">
       <formula>NOT(ISERROR(SEARCH("Concluído",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Em Andamento">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Em Andamento">
       <formula>NOT(ISERROR(SEARCH("Em Andamento",L6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="A Fazer">
-      <formula>NOT(ISERROR(SEARCH("A Fazer",L14)))</formula>
+  <conditionalFormatting sqref="L28">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="A Fazer">
+      <formula>NOT(ISERROR(SEARCH("A Fazer",L28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Concluído">
-      <formula>NOT(ISERROR(SEARCH("Concluído",L14)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="Concluído">
+      <formula>NOT(ISERROR(SEARCH("Concluído",L28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Em Andamento">
-      <formula>NOT(ISERROR(SEARCH("Em Andamento",L14)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="Em Andamento">
+      <formula>NOT(ISERROR(SEARCH("Em Andamento",L28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
